--- a/Pr_2404_2.xlsx
+++ b/Pr_2404_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ася\Documents\test_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5108974-3D73-43C7-8BA9-97E20BC4E194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E6D86-6E01-4FEC-81E9-8F4F7D89A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="646" xr2:uid="{A0876711-A931-42FE-AE47-507CACD3830F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="34">
   <si>
     <t>255,255,204</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>тест</t>
-  </si>
-  <si>
-    <t>ОЧЕНЬ НОВЫЕ ЗАПРОСЫ</t>
   </si>
   <si>
     <t>База данных содержит информацию о рейсах, пассажирах и авиакомпаниях.
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>Дата с нашей стороны</t>
+  </si>
+  <si>
+    <t>ОЧЕНЬ НОВЫЕ ЗАПРОСЫ 1111</t>
+  </si>
+  <si>
+    <t>FFFFFFFFFFFFFFFFFFFFFFFFFFFFFF</t>
   </si>
 </sst>
 </file>
@@ -476,13 +479,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{F8FEB571-BA27-494F-BA40-39299AC25A53}"/>
@@ -946,7 +949,7 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -984,7 +987,7 @@
     </row>
     <row r="2" spans="1:13" s="7" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -1016,7 +1019,7 @@
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1031,15 +1034,15 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="12">
         <f ca="1">TODAY()</f>
         <v>45772</v>
@@ -1065,28 +1068,28 @@
     </row>
     <row r="7" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="G7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>20</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.2">
@@ -1112,32 +1115,32 @@
         <v>6</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="40" t="s">
+      <c r="B9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1145,25 +1148,25 @@
       <c r="A10" s="37">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="B10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1171,25 +1174,25 @@
       <c r="A11" s="37">
         <v>1</v>
       </c>
-      <c r="B11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="40" t="s">
+      <c r="B11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1197,25 +1200,25 @@
       <c r="A12" s="37">
         <v>1</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="40" t="s">
+      <c r="B12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1223,25 +1226,25 @@
       <c r="A13" s="37">
         <v>1</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="40" t="s">
+      <c r="B13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1275,25 +1278,25 @@
       <c r="A15" s="37">
         <v>1</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="40" t="s">
+      <c r="B15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1301,25 +1304,25 @@
       <c r="A16" s="37">
         <v>1</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="40" t="s">
+      <c r="B16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1327,25 +1330,25 @@
       <c r="A17" s="37">
         <v>1</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="40" t="s">
+      <c r="B17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1353,25 +1356,25 @@
       <c r="A18" s="37">
         <v>1</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="40" t="s">
+      <c r="B18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1379,25 +1382,25 @@
       <c r="A19" s="37">
         <v>1</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="40" t="s">
+      <c r="B19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1405,25 +1408,25 @@
       <c r="A20" s="37">
         <v>1</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="40" t="s">
+      <c r="B20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1457,25 +1460,25 @@
       <c r="A22" s="37">
         <v>1</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="40" t="s">
+      <c r="B22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1483,25 +1486,25 @@
       <c r="A23" s="37">
         <v>1</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="40" t="s">
+      <c r="B23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1509,25 +1512,25 @@
       <c r="A24" s="37">
         <v>1</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="40" t="s">
+      <c r="B24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1535,25 +1538,25 @@
       <c r="A25" s="37">
         <v>1</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="40" t="s">
+      <c r="B25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1561,25 +1564,25 @@
       <c r="A26" s="37">
         <v>1</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="40" t="s">
+      <c r="B26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1587,25 +1590,25 @@
       <c r="A27" s="37">
         <v>1</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="40" t="s">
+      <c r="B27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1613,25 +1616,25 @@
       <c r="A28" s="37">
         <v>1</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="40" t="s">
+      <c r="B28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1665,25 +1668,25 @@
       <c r="A30" s="37">
         <v>1</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="40" t="s">
+      <c r="B30" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1691,25 +1694,25 @@
       <c r="A31" s="37">
         <v>1</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="40" t="s">
+      <c r="B31" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1717,25 +1720,25 @@
       <c r="A32" s="37">
         <v>1</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="40" t="s">
+      <c r="B32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1769,25 +1772,25 @@
       <c r="A34" s="37">
         <v>1</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="40" t="s">
+      <c r="B34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1795,25 +1798,25 @@
       <c r="A35" s="37">
         <v>1</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="40" t="s">
+      <c r="B35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1821,25 +1824,25 @@
       <c r="A36" s="37">
         <v>1</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="40" t="s">
+      <c r="B36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1925,25 +1928,25 @@
       <c r="A40" s="37">
         <v>2</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="40" t="s">
+      <c r="B40" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1951,25 +1954,25 @@
       <c r="A41" s="37">
         <v>2</v>
       </c>
-      <c r="B41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="40" t="s">
+      <c r="B41" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1977,25 +1980,25 @@
       <c r="A42" s="37">
         <v>2</v>
       </c>
-      <c r="B42" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="40" t="s">
+      <c r="B42" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2003,25 +2006,25 @@
       <c r="A43" s="37">
         <v>2</v>
       </c>
-      <c r="B43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="40" t="s">
+      <c r="B43" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2029,25 +2032,25 @@
       <c r="A44" s="37">
         <v>2</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="40" t="s">
+      <c r="B44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2055,25 +2058,25 @@
       <c r="A45" s="37">
         <v>2</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="40" t="s">
+      <c r="B45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2081,25 +2084,25 @@
       <c r="A46" s="37">
         <v>2</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="40" t="s">
+      <c r="B46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2107,25 +2110,25 @@
       <c r="A47" s="37">
         <v>2</v>
       </c>
-      <c r="B47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="40" t="s">
+      <c r="B47" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2133,25 +2136,25 @@
       <c r="A48" s="37">
         <v>2</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="40" t="s">
+      <c r="B48" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2159,25 +2162,25 @@
       <c r="A49" s="37">
         <v>2</v>
       </c>
-      <c r="B49" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="40" t="s">
+      <c r="B49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="1"/>
@@ -2188,25 +2191,25 @@
       <c r="A50" s="37">
         <v>2</v>
       </c>
-      <c r="B50" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="40" t="s">
+      <c r="B50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J50" s="1"/>
@@ -2217,25 +2220,25 @@
       <c r="A51" s="37">
         <v>2</v>
       </c>
-      <c r="B51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="40" t="s">
+      <c r="B51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2243,25 +2246,25 @@
       <c r="A52" s="37">
         <v>2</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="40" t="s">
+      <c r="B52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="1"/>
@@ -2272,25 +2275,25 @@
       <c r="A53" s="37">
         <v>2</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="40" t="s">
+      <c r="B53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J53" s="1"/>
@@ -2301,25 +2304,25 @@
       <c r="A54" s="37">
         <v>2</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="40" t="s">
+      <c r="B54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J54" s="1"/>
@@ -2330,25 +2333,25 @@
       <c r="A55" s="37">
         <v>2</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="40" t="s">
+      <c r="B55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J55" s="1"/>
@@ -2359,25 +2362,25 @@
       <c r="A56" s="37">
         <v>2</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="40" t="s">
+      <c r="B56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="1"/>
@@ -2388,25 +2391,25 @@
       <c r="A57" s="37">
         <v>2</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="40" t="s">
+      <c r="B57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2414,25 +2417,25 @@
       <c r="A58" s="37">
         <v>2</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="40" t="s">
+      <c r="B58" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J58" s="1"/>
@@ -2443,25 +2446,25 @@
       <c r="A59" s="37">
         <v>2</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="40" t="s">
+      <c r="B59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J59" s="1"/>
@@ -2472,25 +2475,25 @@
       <c r="A60" s="37">
         <v>2</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="40" t="s">
+      <c r="B60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J60" s="1"/>
@@ -2510,17 +2513,21 @@
       <c r="K61" s="4"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="63" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
+      <c r="B63" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
       <c r="J63" s="17"/>
       <c r="K63" s="4"/>
     </row>
@@ -2578,208 +2585,208 @@
     </row>
     <row r="68" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="E68" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="H68" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="69" spans="2:12" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="41" t="s">
+      <c r="B69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="2:12" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="41" t="s">
+      <c r="B70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="41" t="s">
+      <c r="B71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="2:12" s="15" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="40" t="s">
+      <c r="B72" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H72" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
+      <c r="C73" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="C74" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
+      <c r="C75" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H76" s="40" t="s">
+      <c r="C76" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J76" s="1"/>
@@ -2787,25 +2794,25 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H77" s="40" t="s">
+      <c r="B77" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J77" s="1"/>
@@ -2813,71 +2820,71 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="2:12" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H78" s="40" t="s">
+      <c r="B78" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="79" spans="2:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H79" s="40" t="s">
+      <c r="B79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="40" t="s">
+      <c r="B80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="39" t="s">
         <v>6</v>
       </c>
       <c r="J80" s="1"/>

--- a/Pr_2404_2.xlsx
+++ b/Pr_2404_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ася\Documents\test_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E6D86-6E01-4FEC-81E9-8F4F7D89A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8430D397-442A-439A-B4B1-8967AF674C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="646" xr2:uid="{A0876711-A931-42FE-AE47-507CACD3830F}"/>
   </bookViews>
